--- a/biology/Médecine/1849_en_santé_et_médecine/1849_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1849_en_santé_et_médecine/1849_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1849_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1849_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1849 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1849_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1849_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Épidémies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23 janvier : Elizabeth Blackwell devient la première femme à obtenir son diplôme de médecin aux États-Unis[1].
-22 août : une épidémie de choléra est un facteur décisif de la chute de la République de Saint-Marc[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 janvier : Elizabeth Blackwell devient la première femme à obtenir son diplôme de médecin aux États-Unis.
+22 août : une épidémie de choléra est un facteur décisif de la chute de la République de Saint-Marc.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1849_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1849_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>John Snow (1813-1858) fait paraître On the mode of communication of cholera[3].
-Eugène Bouchut (1818-1891) publie Traité des signes de la mort et des moyens de prévenir les enterrements prématurés[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Snow (1813-1858) fait paraître On the mode of communication of cholera.
+Eugène Bouchut (1818-1891) publie Traité des signes de la mort et des moyens de prévenir les enterrements prématurés.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1849_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1849_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>12 juillet : William Osler (mort en 1919), médecin canadien, un des fondateurs de l'hôpital Johns-Hopkins.
 14 septembre : Ivan Pavlov (mort en 1936), médecin et un physiologiste russe, lauréat du prix Nobel de physiologie ou médecine de 1904 et de la médaille Copley en 1915.
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1849_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1849_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>28 avril : : René Primevère Lesson (né en 1794), premier pharmacien-chef de la Marine, naturaliste.
-8 mai :  Jean Loiseleur-Deslongchamps (né en 1774), médecin et botaniste français[5].</t>
+8 mai :  Jean Loiseleur-Deslongchamps (né en 1774), médecin et botaniste français.</t>
         </is>
       </c>
     </row>
